--- a/mappings/5_Kress_Distribution_ImportMapping.xlsx
+++ b/mappings/5_Kress_Distribution_ImportMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D973ADE1-9624-4B43-823F-41C3435A1FF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BE63AD-FE65-CB49-892E-D9056EEDDD5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34360" yWindow="2380" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51580" yWindow="9100" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
   <si>
     <t>Mapping</t>
   </si>
@@ -416,14 +416,14 @@
     <t>{ "relationshipType": "institution","matchOn": ["idno"]  }</t>
   </si>
   <si>
-    <t>Related records with idno's higher than 1678 are not showin in UI but seem to be related internally</t>
+    <t>skipped because this data belongs in name authorities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -486,13 +486,6 @@
       <sz val="11"/>
       <color rgb="FF3D3D3D"/>
       <name val="Merriweather Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF993300"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -592,20 +585,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,16 +817,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="21" customWidth="1"/>
     <col min="3" max="3" width="29" style="21" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="21" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="21" customWidth="1"/>
@@ -896,7 +891,7 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8">
@@ -932,7 +927,7 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8">
@@ -945,7 +940,7 @@
       <c r="E3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -968,7 +963,7 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8">
@@ -1017,12 +1012,12 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="32"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="33"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1040,23 +1035,23 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>0</v>
+      <c r="A6" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="16">
         <v>5</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="32"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
+      <c r="K6" s="36" t="s">
+        <v>127</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1074,25 +1069,23 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="16">
         <v>6</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>121</v>
+      <c r="C7" s="33" t="s">
+        <v>120</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="10"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1109,96 +1102,96 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="16">
         <v>7</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="36" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="16">
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="16">
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="33"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1216,25 +1209,25 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="16">
         <v>10</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>125</v>
+      <c r="C11" s="16" t="s">
+        <v>124</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="33"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1252,31 +1245,25 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="8">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
+      <c r="C12" s="8" t="s">
+        <v>125</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="33" t="s">
-        <v>127</v>
-      </c>
+      <c r="K12" s="32"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1294,36 +1281,48 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="5"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
+      <c r="A13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="24"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -1345,39 +1344,41 @@
       <c r="Z14" s="24"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="11"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="25"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="22"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="22"/>
       <c r="J16" s="12"/>
       <c r="K16" s="22"/>
       <c r="L16" s="14"/>
@@ -1403,44 +1404,34 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="G17" s="14"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
       <c r="K18" s="20"/>
@@ -1461,14 +1452,22 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
       <c r="K19" s="20"/>
@@ -1490,18 +1489,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
@@ -1525,22 +1516,20 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>78</v>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>80</v>
+      <c r="D21" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1567,19 +1556,19 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="5"/>
@@ -1605,16 +1594,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
+      <c r="C23" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="20"/>
@@ -1643,23 +1632,23 @@
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>27</v>
+      <c r="C24" s="4" t="s">
+        <v>47</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>90</v>
+      <c r="D24" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="29"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -1681,16 +1670,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>93</v>
+      <c r="C25" s="5" t="s">
+        <v>27</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>94</v>
+      <c r="D25" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
@@ -1719,18 +1708,18 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
+      <c r="C26" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1757,21 +1746,23 @@
         <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>13</v>
+      <c r="C27" s="5">
+        <v>1</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="20"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="29"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -1793,13 +1784,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1829,21 +1820,21 @@
         <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="29"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="20"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -1865,13 +1856,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1901,17 +1892,15 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>108</v>
+      <c r="C31" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1939,15 +1928,17 @@
         <v>12</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>113</v>
+      <c r="D32" s="14" t="s">
+        <v>109</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1971,10 +1962,18 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -29298,21 +29297,49 @@
       <c r="Y1008" s="4"/>
       <c r="Z1008" s="4"/>
     </row>
+    <row r="1009" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1009" s="4"/>
+      <c r="B1009" s="4"/>
+      <c r="C1009" s="4"/>
+      <c r="D1009" s="4"/>
+      <c r="E1009" s="4"/>
+      <c r="F1009" s="4"/>
+      <c r="G1009" s="4"/>
+      <c r="H1009" s="4"/>
+      <c r="I1009" s="4"/>
+      <c r="J1009" s="4"/>
+      <c r="K1009" s="29"/>
+      <c r="L1009" s="4"/>
+      <c r="M1009" s="4"/>
+      <c r="N1009" s="4"/>
+      <c r="O1009" s="4"/>
+      <c r="P1009" s="4"/>
+      <c r="Q1009" s="4"/>
+      <c r="R1009" s="4"/>
+      <c r="S1009" s="4"/>
+      <c r="T1009" s="4"/>
+      <c r="U1009" s="4"/>
+      <c r="V1009" s="4"/>
+      <c r="W1009" s="4"/>
+      <c r="X1009" s="4"/>
+      <c r="Y1009" s="4"/>
+      <c r="Z1009" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C28" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>ignore_stop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C27" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C28" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>existingRecordPolicy</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C29:C30" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C30:C31" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>YES_NO</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C24" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C25" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>table</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A1008" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A1009" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>RuletypesWRules</formula1>
     </dataValidation>
   </dataValidations>
@@ -29325,7 +29352,7 @@
           <x14:formula1>
             <xm:f>'Drop-down Lists'!$E$1:$E$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C23</xm:sqref>
+          <xm:sqref>C24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
